--- a/DATA/UA_stock_data.xlsx
+++ b/DATA/UA_stock_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1948"/>
+  <dimension ref="A1:G1949"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45254,7 +45254,30 @@
         <v>8.119999885559082</v>
       </c>
       <c r="G1948" t="n">
-        <v>4139090</v>
+        <v>4141263</v>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="B1949" t="n">
+        <v>8.130000114440918</v>
+      </c>
+      <c r="C1949" t="n">
+        <v>8.220000267028809</v>
+      </c>
+      <c r="D1949" t="n">
+        <v>7.940100193023682</v>
+      </c>
+      <c r="E1949" t="n">
+        <v>8.189999580383301</v>
+      </c>
+      <c r="F1949" t="n">
+        <v>8.189999580383301</v>
+      </c>
+      <c r="G1949" t="n">
+        <v>5883861</v>
       </c>
     </row>
   </sheetData>
